--- a/GetInventory - Default.xlsx
+++ b/GetInventory - Default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tony\PycharmProjects\NetDevOps-GetInventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0D20E9-9352-49E4-AE61-B200D219405F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88661E68-A3B8-4C70-A3C8-2595D05C3AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="154">
   <si>
     <t>Username</t>
   </si>
@@ -503,6 +503,12 @@
   </si>
   <si>
     <t>VLAN IF - Active</t>
+  </si>
+  <si>
+    <t>cisco_nxos</t>
+  </si>
+  <si>
+    <t>cisco_ios</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1158,7 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
@@ -1163,7 +1169,7 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="E10">
         <v>2222</v>
@@ -1176,9 +1182,6 @@
       <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
-        <v>124</v>
-      </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
@@ -1189,9 +1192,6 @@
       </c>
       <c r="B12" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
@@ -1222,8 +1222,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B998" xr:uid="{9E79B49A-5F92-4A71-B3FE-85893E55E1CA}">
       <formula1>"Yes,No,Completed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C1132" xr:uid="{4F3676CE-4307-4242-A50B-53311B37CE11}">
-      <formula1>"cisco-ios, cisco-nxos, autodetect"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C1199" xr:uid="{ECF68FFA-6D07-4745-B142-7976EE519DCC}">
+      <formula1>"cisco_ios, cisco_nxos, autodetect"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GetInventory - Default.xlsx
+++ b/GetInventory - Default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tony\PycharmProjects\NetDevOps-GetInventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88661E68-A3B8-4C70-A3C8-2595D05C3AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA71943-0BC8-4C90-9C16-6D425A1E56CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="151">
   <si>
     <t>Username</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Output Directory</t>
   </si>
   <si>
-    <t>C:\temp\Test_ParseIT\</t>
-  </si>
-  <si>
     <t>Output Name</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>Connection Error</t>
   </si>
   <si>
-    <t>telnet</t>
-  </si>
-  <si>
     <t>show clock</t>
   </si>
   <si>
@@ -172,21 +166,6 @@
   </si>
   <si>
     <t>Uptime</t>
-  </si>
-  <si>
-    <t>172.16.255.101</t>
-  </si>
-  <si>
-    <t>172.16.255.102</t>
-  </si>
-  <si>
-    <t>172.16.255.4</t>
-  </si>
-  <si>
-    <t>172.16.255.8</t>
-  </si>
-  <si>
-    <t>172.16.255.5</t>
   </si>
   <si>
     <t>Local Port</t>
@@ -421,21 +400,9 @@
 (defaults to cisco_ios)</t>
   </si>
   <si>
-    <t>autodetect</t>
-  </si>
-  <si>
     <t>IP/DNS Host</t>
   </si>
   <si>
-    <t>LABTEST</t>
-  </si>
-  <si>
-    <t>192.168.1.1</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
     <t>show ip bgp</t>
   </si>
   <si>
@@ -505,10 +472,34 @@
     <t>VLAN IF - Active</t>
   </si>
   <si>
+    <t>C:\temp\SHOW_VRF\</t>
+  </si>
+  <si>
+    <t>showvrf</t>
+  </si>
+  <si>
+    <t>172.31.22.129</t>
+  </si>
+  <si>
+    <t>172.31.22.130</t>
+  </si>
+  <si>
+    <t>172.31.22.131</t>
+  </si>
+  <si>
+    <t>172.31.22.134</t>
+  </si>
+  <si>
     <t>cisco_nxos</t>
   </si>
   <si>
-    <t>cisco_ios</t>
+    <t>172.31.22.128</t>
+  </si>
+  <si>
+    <t>show vrf</t>
+  </si>
+  <si>
+    <t>show ip route vrf x</t>
   </si>
 </sst>
 </file>
@@ -908,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW14"/>
+  <dimension ref="A1:AW12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,36 +966,36 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
     <row r="7" spans="1:49" ht="113.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>0</v>
@@ -1013,198 +1004,176 @@
         <v>2</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="W7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="X7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="AR7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="2" t="s">
+      <c r="AS7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT7" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG7" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH7" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI7" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ7" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM7" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN7" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO7" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP7" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AR7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT7" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="AU7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10">
-        <v>2222</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1216,13 +1185,13 @@
     <mergeCell ref="B5:D5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B999:B1233 D8:D15" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B998:B1232 D8:D15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"ssh, telnet"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B998" xr:uid="{9E79B49A-5F92-4A71-B3FE-85893E55E1CA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B997" xr:uid="{9E79B49A-5F92-4A71-B3FE-85893E55E1CA}">
       <formula1>"Yes,No,Completed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C1199" xr:uid="{ECF68FFA-6D07-4745-B142-7976EE519DCC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C1198" xr:uid="{ECF68FFA-6D07-4745-B142-7976EE519DCC}">
       <formula1>"cisco_ios, cisco_nxos, autodetect"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1247,13 +1216,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1283,25 +1252,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1327,19 +1296,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1366,28 +1335,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1435,97 +1404,97 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="S1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="X1" t="s">
         <v>59</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Y1" t="s">
         <v>60</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1555,31 +1524,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1609,37 +1578,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="J1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1650,97 +1619,107 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71063F6-A136-491C-B6BE-7CD0E59E5434}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1767,80 +1746,80 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/GetInventory - Default.xlsx
+++ b/GetInventory - Default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tony\PycharmProjects\NetDevOps-GetInventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8F7D39-C8EA-4C6C-A619-CC86ADCA48C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EF73CF-F4B3-4D76-BF48-8445D4772B8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1635" windowWidth="21585" windowHeight="12405" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="231">
   <si>
     <t>Username</t>
   </si>
@@ -726,6 +726,27 @@
   </si>
   <si>
     <t>Lab Testing</t>
+  </si>
+  <si>
+    <t>172.31.22.128</t>
+  </si>
+  <si>
+    <t>172.31.22.129</t>
+  </si>
+  <si>
+    <t>172.31.22.130</t>
+  </si>
+  <si>
+    <t>172.31.22.131</t>
+  </si>
+  <si>
+    <t>172.31.22.132</t>
+  </si>
+  <si>
+    <t>172.31.22.133</t>
+  </si>
+  <si>
+    <t>172.31.22.134</t>
   </si>
 </sst>
 </file>
@@ -839,7 +860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -890,6 +911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1210,7 +1232,7 @@
   <dimension ref="A1:BB68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,48 +1493,71 @@
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="19" t="s">
+        <v>224</v>
+      </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="26" t="s">
+        <v>225</v>
+      </c>
       <c r="B9" s="19"/>
       <c r="C9" s="16"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="24" t="s">
+        <v>226</v>
+      </c>
       <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+      <c r="C10" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="26" t="s">
+        <v>227</v>
+      </c>
       <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="C11" s="24" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="24" t="s">
+        <v>228</v>
+      </c>
       <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="C12" s="24" t="s">
+        <v>116</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="26" t="s">
+        <v>229</v>
+      </c>
       <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="C13" s="24" t="s">
+        <v>116</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>230</v>
+      </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="7"/>
@@ -2090,7 +2135,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2235,7 +2280,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">

--- a/GetInventory - Default.xlsx
+++ b/GetInventory - Default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tony\PycharmProjects\NetDevOps-GetInventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EF73CF-F4B3-4D76-BF48-8445D4772B8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9132195-396D-404C-9804-9D285B626D54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="21585" windowHeight="12405" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="232">
   <si>
     <t>Username</t>
   </si>
@@ -747,6 +747,9 @@
   </si>
   <si>
     <t>172.31.22.134</t>
+  </si>
+  <si>
+    <t>IOS Filename</t>
   </si>
 </sst>
 </file>
@@ -908,10 +911,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1229,10 +1232,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:BB68"/>
+  <dimension ref="A1:BC68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,84 +1254,85 @@
     <col min="12" max="12" width="15.42578125" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
-    <col min="16" max="16" width="41.28515625" customWidth="1"/>
-    <col min="17" max="33" width="4.28515625" customWidth="1"/>
-    <col min="34" max="42" width="4.42578125" customWidth="1"/>
-    <col min="43" max="43" width="4.42578125" style="19" customWidth="1"/>
-    <col min="44" max="44" width="4.42578125" customWidth="1"/>
-    <col min="46" max="46" width="16.7109375" customWidth="1"/>
-    <col min="47" max="47" width="74.28515625" customWidth="1"/>
-    <col min="48" max="48" width="54.5703125" customWidth="1"/>
-    <col min="49" max="49" width="37.28515625" customWidth="1"/>
-    <col min="50" max="50" width="37.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16" style="24" customWidth="1"/>
+    <col min="17" max="17" width="51.140625" style="24" customWidth="1"/>
+    <col min="18" max="34" width="4.28515625" customWidth="1"/>
+    <col min="35" max="43" width="4.42578125" customWidth="1"/>
+    <col min="44" max="44" width="4.42578125" style="19" customWidth="1"/>
+    <col min="45" max="45" width="4.42578125" customWidth="1"/>
+    <col min="47" max="47" width="16.7109375" customWidth="1"/>
+    <col min="48" max="48" width="74.28515625" customWidth="1"/>
+    <col min="49" max="49" width="54.5703125" customWidth="1"/>
+    <col min="50" max="50" width="37.28515625" customWidth="1"/>
+    <col min="51" max="51" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-    </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="7" spans="1:54" ht="113.25" x14ac:dyDescent="0.25">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="7" spans="1:55" ht="113.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>200</v>
       </c>
@@ -1377,122 +1381,125 @@
       <c r="P7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="Q7" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="R7" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="R7" s="21" t="s">
+      <c r="S7" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="S7" s="21" t="s">
+      <c r="T7" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="T7" s="21" t="s">
+      <c r="U7" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="U7" s="21" t="s">
+      <c r="V7" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="V7" s="21" t="s">
+      <c r="W7" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="W7" s="21" t="s">
+      <c r="X7" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="X7" s="21" t="s">
+      <c r="Y7" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="Y7" s="21" t="s">
+      <c r="Z7" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="Z7" s="21" t="s">
+      <c r="AA7" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="AA7" s="21" t="s">
+      <c r="AB7" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="AB7" s="21" t="s">
+      <c r="AC7" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="AC7" s="21" t="s">
+      <c r="AD7" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="AD7" s="21" t="s">
+      <c r="AE7" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="AE7" s="21" t="s">
+      <c r="AF7" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="AF7" s="21" t="s">
+      <c r="AG7" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="AG7" s="21" t="s">
+      <c r="AH7" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="AH7" s="21" t="s">
+      <c r="AI7" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="AI7" s="21" t="s">
+      <c r="AJ7" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="AJ7" s="21" t="s">
+      <c r="AK7" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="AK7" s="21" t="s">
+      <c r="AL7" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="AL7" s="21" t="s">
+      <c r="AM7" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="AM7" s="21" t="s">
+      <c r="AN7" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="AN7" s="21" t="s">
+      <c r="AO7" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="AO7" s="21" t="s">
+      <c r="AP7" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="AP7" s="21" t="s">
+      <c r="AQ7" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="AQ7" s="22" t="s">
+      <c r="AR7" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="AR7" s="22" t="s">
+      <c r="AS7" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="AS7" s="22" t="s">
+      <c r="AT7" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="AT7" s="6" t="s">
+      <c r="AU7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="AU7" s="2" t="s">
+      <c r="AV7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AV7" s="2" t="s">
+      <c r="AW7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AW7" s="2" t="s">
+      <c r="AX7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AX7" s="2" t="s">
+      <c r="AY7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AY7" s="18" t="s">
+      <c r="AZ7" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="AZ7" s="18" t="s">
+      <c r="BA7" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="BA7" s="18" t="s">
+      <c r="BB7" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="BB7" s="18" t="s">
+      <c r="BC7" s="18" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>224</v>
       </c>
@@ -1501,8 +1508,8 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>225</v>
       </c>
       <c r="B9" s="19"/>
@@ -1510,7 +1517,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>226</v>
       </c>
@@ -1521,8 +1528,8 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>227</v>
       </c>
       <c r="B11" s="19"/>
@@ -1532,7 +1539,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>228</v>
       </c>
@@ -1543,8 +1550,8 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>229</v>
       </c>
       <c r="B13" s="19"/>
@@ -1554,7 +1561,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>230</v>
       </c>
@@ -1563,14 +1570,14 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>

--- a/GetInventory - Default.xlsx
+++ b/GetInventory - Default.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tony\PycharmProjects\NetDevOps-GetInventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PycharmProjects\GetInventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9132195-396D-404C-9804-9D285B626D54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74F0D84E-BC1A-42FE-84CD-168205BAEAE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="21585" windowHeight="12405" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8080" yWindow="5380" windowWidth="17270" windowHeight="13710" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="234">
   <si>
     <t>Username</t>
   </si>
@@ -750,13 +750,22 @@
   </si>
   <si>
     <t>IOS Filename</t>
+  </si>
+  <si>
+    <t>GetInventory</t>
+  </si>
+  <si>
+    <t>https://github.com/tc45/GetInventory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode=";;;**"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -786,8 +795,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,8 +873,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -859,27 +926,150 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="60"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="60" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="60"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -896,27 +1086,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="60"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="60"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="60" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="60"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="60"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="60"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="60"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="60"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1235,647 +1507,532 @@
   <dimension ref="A1:BC68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="20" customWidth="1"/>
-    <col min="16" max="16" width="16" style="24" customWidth="1"/>
-    <col min="17" max="17" width="51.140625" style="24" customWidth="1"/>
-    <col min="18" max="34" width="4.28515625" customWidth="1"/>
-    <col min="35" max="43" width="4.42578125" customWidth="1"/>
-    <col min="44" max="44" width="4.42578125" style="19" customWidth="1"/>
-    <col min="45" max="45" width="4.42578125" customWidth="1"/>
-    <col min="47" max="47" width="16.7109375" customWidth="1"/>
-    <col min="48" max="48" width="74.28515625" customWidth="1"/>
-    <col min="49" max="49" width="54.5703125" customWidth="1"/>
-    <col min="50" max="50" width="37.28515625" customWidth="1"/>
-    <col min="51" max="51" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="7" style="27" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" style="34" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" style="27" customWidth="1"/>
+    <col min="10" max="10" width="25.1796875" style="27" customWidth="1"/>
+    <col min="11" max="11" width="16.54296875" style="27" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" style="27" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" style="27"/>
+    <col min="14" max="14" width="16" style="27" customWidth="1"/>
+    <col min="15" max="15" width="20" style="27" customWidth="1"/>
+    <col min="16" max="16" width="16" style="27" customWidth="1"/>
+    <col min="17" max="17" width="51.1796875" style="27" customWidth="1"/>
+    <col min="18" max="34" width="4.26953125" style="27" customWidth="1"/>
+    <col min="35" max="45" width="4.453125" style="27" customWidth="1"/>
+    <col min="46" max="46" width="8.7265625" style="27"/>
+    <col min="47" max="47" width="16.7265625" style="27" customWidth="1"/>
+    <col min="48" max="48" width="74.26953125" style="27" customWidth="1"/>
+    <col min="49" max="49" width="54.54296875" style="27" customWidth="1"/>
+    <col min="50" max="50" width="37.26953125" style="27" customWidth="1"/>
+    <col min="51" max="51" width="37.81640625" style="27" customWidth="1"/>
+    <col min="52" max="55" width="8.7265625" style="27"/>
+    <col min="56" max="16384" width="8.7265625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:55" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="I1" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="35"/>
+    </row>
+    <row r="2" spans="1:55" s="21" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="I2" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="J2" s="36"/>
+    </row>
+    <row r="3" spans="1:55" s="21" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+    </row>
+    <row r="4" spans="1:55" s="21" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:55" s="21" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-    </row>
-    <row r="7" spans="1:55" ht="113.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:55" s="21" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:55" s="21" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="R7" s="21" t="s">
+      <c r="R7" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="S7" s="21" t="s">
+      <c r="S7" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="T7" s="21" t="s">
+      <c r="T7" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="U7" s="21" t="s">
+      <c r="U7" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="V7" s="21" t="s">
+      <c r="V7" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="W7" s="21" t="s">
+      <c r="W7" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="X7" s="21" t="s">
+      <c r="X7" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="Y7" s="21" t="s">
+      <c r="Y7" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="Z7" s="21" t="s">
+      <c r="Z7" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="AA7" s="21" t="s">
+      <c r="AA7" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="AB7" s="21" t="s">
+      <c r="AB7" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="AC7" s="21" t="s">
+      <c r="AC7" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AD7" s="21" t="s">
+      <c r="AD7" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="AE7" s="21" t="s">
+      <c r="AE7" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="AF7" s="21" t="s">
+      <c r="AF7" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="21" t="s">
+      <c r="AG7" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="AH7" s="21" t="s">
+      <c r="AH7" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="AI7" s="21" t="s">
+      <c r="AI7" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="AJ7" s="21" t="s">
+      <c r="AJ7" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="AK7" s="21" t="s">
+      <c r="AK7" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="AL7" s="21" t="s">
+      <c r="AL7" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="AM7" s="21" t="s">
+      <c r="AM7" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="AN7" s="21" t="s">
+      <c r="AN7" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="AO7" s="21" t="s">
+      <c r="AO7" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AP7" s="21" t="s">
+      <c r="AP7" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="AQ7" s="21" t="s">
+      <c r="AQ7" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AR7" s="22" t="s">
+      <c r="AR7" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="AS7" s="22" t="s">
+      <c r="AS7" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="AT7" s="22" t="s">
+      <c r="AT7" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="AU7" s="6" t="s">
+      <c r="AU7" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="AV7" s="2" t="s">
+      <c r="AV7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AW7" s="2" t="s">
+      <c r="AW7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AX7" s="2" t="s">
+      <c r="AX7" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AY7" s="2" t="s">
+      <c r="AY7" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AZ7" s="18" t="s">
+      <c r="AZ7" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="BA7" s="18" t="s">
+      <c r="BA7" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="BB7" s="18" t="s">
+      <c r="BB7" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="BC7" s="18" t="s">
+      <c r="BC7" s="38" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A10" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A11" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19" t="s">
+      <c r="C11" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A12" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="24" t="s">
+      <c r="C12" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A13" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="24" t="s">
+      <c r="C13" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A14" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="24" t="s">
+      <c r="C14" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="50" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H50" t="s">
+    </row>
+    <row r="50" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H50" s="27" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H51" s="8" t="s">
+    <row r="51" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H51" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="I51" s="8" t="s">
+      <c r="I51" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J51" s="8"/>
-      <c r="K51" t="s">
+      <c r="K51" s="27" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H52" s="8" t="s">
+    <row r="52" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H52" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="I52" s="8" t="s">
+      <c r="I52" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J52" s="8"/>
-      <c r="K52" t="s">
+      <c r="K52" s="27" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H53" s="8" t="s">
+    <row r="53" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H53" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="I53" s="8" t="s">
+      <c r="I53" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J53" s="8" t="s">
+      <c r="J53" s="27" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H54" s="8" t="s">
+    <row r="54" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H54" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="I54" s="8" t="s">
+      <c r="I54" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J54" s="8" t="s">
+      <c r="J54" s="27" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H55" s="8" t="s">
+    <row r="55" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H55" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="I55" s="8" t="s">
+      <c r="I55" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J55" s="8" t="s">
+      <c r="J55" s="27" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H56" s="8" t="s">
+    <row r="56" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H56" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="I56" s="8" t="s">
+      <c r="I56" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J56" s="8" t="s">
+      <c r="J56" s="27" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H57" s="8" t="s">
+    <row r="57" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H57" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="I57" s="8" t="s">
+      <c r="I57" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J57" s="8" t="s">
+      <c r="J57" s="27" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H58" s="8" t="s">
+    <row r="58" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H58" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="I58" s="8" t="s">
+      <c r="I58" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J58" s="8" t="s">
+      <c r="J58" s="27" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H59" s="8" t="s">
+    <row r="59" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H59" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="I59" s="8" t="s">
+      <c r="I59" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J59" s="8" t="s">
+      <c r="J59" s="27" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H60" s="8" t="s">
+    <row r="60" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H60" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="I60" s="8" t="s">
+      <c r="I60" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J60" s="8" t="s">
+      <c r="J60" s="27" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H61" s="8" t="s">
+    <row r="61" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H61" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="I61" s="8" t="s">
+      <c r="I61" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J61" s="8" t="s">
+      <c r="J61" s="27" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H62" s="8" t="s">
+    <row r="62" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H62" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="I62" s="8" t="s">
+      <c r="I62" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J62" s="8" t="s">
+      <c r="J62" s="27" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H63" s="8" t="s">
+    <row r="63" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H63" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="I63" s="8" t="s">
+      <c r="I63" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J63" s="8" t="s">
+      <c r="J63" s="27" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H64" s="8" t="s">
+    <row r="64" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H64" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="I64" s="8" t="s">
+      <c r="I64" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J64" s="8" t="s">
+      <c r="J64" s="27" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H65" s="8" t="s">
+    <row r="65" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H65" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="I65" s="8" t="s">
+      <c r="I65" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J65" s="8" t="s">
+      <c r="J65" s="27" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H66" s="8" t="s">
+    <row r="66" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H66" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="I66" s="8" t="s">
+      <c r="I66" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J66" s="8" t="s">
+      <c r="J66" s="27" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H67" s="8" t="s">
+    <row r="67" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H67" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8" t="s">
+      <c r="J67" s="27" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H68" s="8" t="s">
+    <row r="68" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H68" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8" t="s">
+      <c r="J68" s="27" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="BD8:XFD1048576"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -1893,15 +2050,18 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34:B990" xr:uid="{9E79B49A-5F92-4A71-B3FE-85893E55E1CA}">
       <formula1>"Yes,No,Completed"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C30:C33 J51:J68 C8:C27" xr:uid="{CCAE8AFF-8032-479D-AB64-6701CB445FD3}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C30:C33 J51:J68 C9:C27" xr:uid="{CCAE8AFF-8032-479D-AB64-6701CB445FD3}">
       <formula1>"cisco_ios, cisco_nxos, autodetect"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B30:B33 I51:I66 B8:B27" xr:uid="{6B6EFB58-779E-4E07-AADC-F635F65BB02B}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B30:B33 I51:I66 B9:B27" xr:uid="{6B6EFB58-779E-4E07-AADC-F635F65BB02B}">
       <formula1>"Yes,No,Completed"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{6AC0859C-3AC0-435D-841D-899E61904F91}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1916,49 +2076,49 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="17" style="15" customWidth="1"/>
-    <col min="8" max="8" width="138.5703125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="19" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.26953125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="46.7265625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="30.54296875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="17" style="10" customWidth="1"/>
+    <col min="8" max="8" width="138.54296875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="19" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="10" t="s">
         <v>205</v>
       </c>
     </row>
@@ -1979,153 +2139,153 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2145,214 +2305,214 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="9" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="19.81640625" style="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="8">
         <v>3</v>
       </c>
     </row>
@@ -2380,14 +2540,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="135.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="135.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2413,30 +2573,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="66.85546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="25.1796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="66.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.7265625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2455,36 +2615,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="14" width="16.140625" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="44.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" customWidth="1"/>
+    <col min="7" max="7" width="21.7265625" customWidth="1"/>
+    <col min="8" max="14" width="16.1796875" customWidth="1"/>
+    <col min="15" max="15" width="15.1796875" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="15.7109375" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" style="1"/>
+    <col min="18" max="18" width="15.7265625" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.1796875" customWidth="1"/>
+    <col min="23" max="23" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2596,19 +2756,19 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="10" width="17.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="17.26953125" customWidth="1"/>
+    <col min="9" max="10" width="17.26953125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2660,48 +2820,48 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="20" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="25.1796875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="12" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2720,20 +2880,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="138.5703125" customWidth="1"/>
-    <col min="9" max="9" width="100.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" customWidth="1"/>
+    <col min="8" max="8" width="138.54296875" customWidth="1"/>
+    <col min="9" max="9" width="100.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2777,18 +2937,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2826,14 +2986,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.26953125" customWidth="1"/>
+    <col min="5" max="5" width="27.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2867,17 +3027,17 @@
       <selection activeCell="A2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
-    <col min="8" max="8" width="154.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.7265625" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" customWidth="1"/>
+    <col min="8" max="8" width="154.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>

--- a/GetInventory - Default.xlsx
+++ b/GetInventory - Default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PycharmProjects\GetInventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74F0D84E-BC1A-42FE-84CD-168205BAEAE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C451E7-E9CA-40B0-B442-F2DBD06FEAB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8080" yWindow="5380" windowWidth="17270" windowHeight="13710" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20700" yWindow="3110" windowWidth="17270" windowHeight="10780" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,19 @@
     <sheet name="CDP" sheetId="3" r:id="rId6"/>
     <sheet name="ARP" sheetId="8" r:id="rId7"/>
     <sheet name="MAC" sheetId="9" r:id="rId8"/>
-    <sheet name="Logging" sheetId="10" r:id="rId9"/>
-    <sheet name="LLDP" sheetId="14" r:id="rId10"/>
-    <sheet name="Commands" sheetId="2" r:id="rId11"/>
-    <sheet name="Settings" sheetId="13" r:id="rId12"/>
-    <sheet name="Errors" sheetId="7" r:id="rId13"/>
+    <sheet name="LLDP" sheetId="14" r:id="rId9"/>
+    <sheet name="Commands" sheetId="2" r:id="rId10"/>
+    <sheet name="Settings" sheetId="13" r:id="rId11"/>
+    <sheet name="Errors" sheetId="7" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">ARP!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">BGP!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CDP!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Errors!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Errors!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Interfaces!$A$1:$AE$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Inventory!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">LLDP!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Logging!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">LLDP!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">MAC!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Routes!$A$1:$K$1</definedName>
   </definedNames>
@@ -54,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="220">
   <si>
     <t>Username</t>
   </si>
@@ -353,27 +351,9 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
-    <t>Facility</t>
-  </si>
-  <si>
-    <t>Severity</t>
-  </si>
-  <si>
-    <t>Mnemonic</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>Timezone</t>
-  </si>
-  <si>
     <t>Destination Address</t>
   </si>
   <si>
@@ -719,36 +699,6 @@
     <t>Origin</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>c:\temp\GetInventory\lab_test\run1</t>
-  </si>
-  <si>
-    <t>Lab Testing</t>
-  </si>
-  <si>
-    <t>172.31.22.128</t>
-  </si>
-  <si>
-    <t>172.31.22.129</t>
-  </si>
-  <si>
-    <t>172.31.22.130</t>
-  </si>
-  <si>
-    <t>172.31.22.131</t>
-  </si>
-  <si>
-    <t>172.31.22.132</t>
-  </si>
-  <si>
-    <t>172.31.22.133</t>
-  </si>
-  <si>
-    <t>172.31.22.134</t>
-  </si>
-  <si>
     <t>IOS Filename</t>
   </si>
   <si>
@@ -756,6 +706,12 @@
   </si>
   <si>
     <t>https://github.com/tc45/GetInventory</t>
+  </si>
+  <si>
+    <t>c:\temp\GetInventory\Customer\Project</t>
+  </si>
+  <si>
+    <t>Site1</t>
   </si>
 </sst>
 </file>
@@ -763,9 +719,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode=";;;**"/>
+    <numFmt numFmtId="164" formatCode=";;;**"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -831,6 +787,14 @@
       <strike/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1064,12 +1028,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1077,18 +1040,43 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="60"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1102,6 +1090,14 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1118,73 +1114,34 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="60"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="60"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="60" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="60"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="60"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="60"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="60"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="60"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="60"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1506,529 +1463,484 @@
   </sheetPr>
   <dimension ref="A1:BC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.453125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="7" style="27" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" style="27" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" style="34" customWidth="1"/>
-    <col min="8" max="8" width="23.26953125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" style="27" customWidth="1"/>
-    <col min="10" max="10" width="25.1796875" style="27" customWidth="1"/>
-    <col min="11" max="11" width="16.54296875" style="27" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" style="27" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="27"/>
-    <col min="14" max="14" width="16" style="27" customWidth="1"/>
-    <col min="15" max="15" width="20" style="27" customWidth="1"/>
-    <col min="16" max="16" width="16" style="27" customWidth="1"/>
-    <col min="17" max="17" width="51.1796875" style="27" customWidth="1"/>
-    <col min="18" max="34" width="4.26953125" style="27" customWidth="1"/>
-    <col min="35" max="45" width="4.453125" style="27" customWidth="1"/>
-    <col min="46" max="46" width="8.7265625" style="27"/>
-    <col min="47" max="47" width="16.7265625" style="27" customWidth="1"/>
-    <col min="48" max="48" width="74.26953125" style="27" customWidth="1"/>
-    <col min="49" max="49" width="54.54296875" style="27" customWidth="1"/>
-    <col min="50" max="50" width="37.26953125" style="27" customWidth="1"/>
-    <col min="51" max="51" width="37.81640625" style="27" customWidth="1"/>
-    <col min="52" max="55" width="8.7265625" style="27"/>
-    <col min="56" max="16384" width="8.7265625" style="14"/>
+    <col min="1" max="1" width="20.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="7" style="12" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="25.1796875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="16.54296875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" style="12"/>
+    <col min="14" max="14" width="16" style="12" customWidth="1"/>
+    <col min="15" max="15" width="20" style="12" customWidth="1"/>
+    <col min="16" max="16" width="16" style="12" customWidth="1"/>
+    <col min="17" max="17" width="51.1796875" style="12" customWidth="1"/>
+    <col min="18" max="34" width="4.26953125" style="12" customWidth="1"/>
+    <col min="35" max="45" width="4.453125" style="12" customWidth="1"/>
+    <col min="46" max="46" width="8.7265625" style="12"/>
+    <col min="47" max="47" width="16.7265625" style="12" customWidth="1"/>
+    <col min="48" max="48" width="74.26953125" style="12" customWidth="1"/>
+    <col min="49" max="49" width="54.54296875" style="12" customWidth="1"/>
+    <col min="50" max="50" width="37.26953125" style="12" customWidth="1"/>
+    <col min="51" max="51" width="37.81640625" style="12" customWidth="1"/>
+    <col min="52" max="55" width="8.7265625" style="12"/>
+    <col min="56" max="16384" width="8.7265625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:55" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
-      <c r="I1" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="J1" s="35"/>
-    </row>
-    <row r="2" spans="1:55" s="21" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="30" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="I1" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:55" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="I2" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="J2" s="36"/>
-    </row>
-    <row r="3" spans="1:55" s="21" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="30" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+      <c r="I2" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:55" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-    </row>
-    <row r="4" spans="1:55" s="21" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="30" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:55" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:55" s="21" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="31" t="s">
+      <c r="B4" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:55" s="11" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:55" s="21" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:55" s="21" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
+      <c r="B5" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:55" s="11" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:55" s="38" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="R7" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="S7" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="T7" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="U7" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="V7" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="W7" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="X7" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z7" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA7" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB7" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC7" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD7" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE7" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF7" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG7" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH7" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI7" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ7" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK7" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL7" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM7" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN7" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO7" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP7" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ7" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR7" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="23" t="s">
+      <c r="AS7" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="R7" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="S7" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="T7" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="U7" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="V7" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="W7" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="X7" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y7" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z7" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA7" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB7" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC7" s="24" t="s">
+      <c r="AT7" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU7" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV7" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW7" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX7" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY7" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ7" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA7" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="BB7" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="BC7" s="37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A10" s="13"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A14" s="13"/>
+    </row>
+    <row r="50" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H50" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H51" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H52" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H53" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="AD7" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE7" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF7" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG7" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH7" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI7" s="24" t="s">
+    </row>
+    <row r="54" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H54" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="AJ7" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK7" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL7" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM7" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN7" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="AO7" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP7" s="24" t="s">
+      <c r="I54" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H55" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H56" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="AQ7" s="24" t="s">
+      <c r="I56" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H57" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AR7" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="AS7" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="AT7" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="AU7" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="AV7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="AW7" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="AY7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="AZ7" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="BA7" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="BB7" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="BC7" s="38" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A11" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A12" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A14" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H50" s="27" t="s">
+      <c r="I57" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H58" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H59" s="12" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="51" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H51" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="I51" s="27" t="s">
+      <c r="I59" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K51" s="27" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H52" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="I52" s="27" t="s">
+      <c r="J59" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H60" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="I60" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K52" s="27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="53" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H53" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="I53" s="27" t="s">
+      <c r="J60" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H61" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="I61" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J53" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H54" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="I54" s="27" t="s">
+      <c r="J61" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H62" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I62" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J54" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H55" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="I55" s="27" t="s">
+      <c r="J62" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H63" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I63" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J55" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H56" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="I56" s="27" t="s">
+      <c r="J63" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H64" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="I64" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J56" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H57" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="I57" s="27" t="s">
+      <c r="J64" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H65" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="I65" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J57" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H58" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I58" s="27" t="s">
+      <c r="J65" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H66" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I66" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J58" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="59" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H59" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="I59" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J59" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H60" s="27" t="s">
+      <c r="J66" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H67" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="I60" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J60" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="61" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H61" s="27" t="s">
+      <c r="J67" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H68" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="I61" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J61" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H62" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="I62" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J62" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H63" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="I63" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J63" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H64" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="I64" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J64" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="65" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H65" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="I65" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J65" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H66" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="I66" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J66" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H67" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="J67" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="68" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H68" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="J68" s="27" t="s">
-        <v>116</v>
+      <c r="J68" s="12" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="8">
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I2:J2"/>
@@ -2040,7 +1952,7 @@
     <mergeCell ref="B5:G5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="5">
+  <dataValidations disablePrompts="1" count="5">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B991:B1225 D8:D14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"ssh, telnet"</formula1>
     </dataValidation>
@@ -2066,69 +1978,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824F33BB-1502-4867-AAFF-9DDB5C7C8EE8}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.26953125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="46.7265625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="30.54296875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="17" style="10" customWidth="1"/>
-    <col min="8" max="8" width="138.54296875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="19" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{B7EB6E73-7A47-4B22-A88C-5BA601D79630}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71063F6-A136-491C-B6BE-7CD0E59E5434}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
@@ -2145,148 +1994,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>110</v>
+      <c r="A16" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>111</v>
+      <c r="A17" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2294,7 +2143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B52B7A-0E78-473C-A295-A470AB092121}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -2302,217 +2151,217 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" style="4" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="19.81640625" style="3" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B10" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="6" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="6" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="6" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" s="9" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="B16" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B17" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B18" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B19" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="40" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="B20" s="39" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="C20" s="40">
         <v>3</v>
       </c>
     </row>
@@ -2526,10 +2375,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A506E66-BE73-4010-89C1-B27022DA27AE}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2552,10 +2402,10 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2575,28 +2425,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="66.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.7265625" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="25.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="66.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.7265625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2661,7 +2511,7 @@
         <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G1" t="s">
         <v>47</v>
@@ -2773,7 +2623,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -2822,47 +2672,47 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="20" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="12"/>
+    <col min="1" max="1" width="25.1796875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="20" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2907,7 +2757,7 @@
         <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F1" t="s">
         <v>43</v>
@@ -2919,7 +2769,7 @@
         <v>42</v>
       </c>
       <c r="I1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2953,7 +2803,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
         <v>95</v>
@@ -2998,16 +2848,16 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
         <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3017,54 +2867,64 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAAED6F-19FA-4F98-A8B1-B908E833D63D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824F33BB-1502-4867-AAFF-9DDB5C7C8EE8}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="5" max="5" width="20.7265625" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" customWidth="1"/>
-    <col min="7" max="7" width="23.1796875" customWidth="1"/>
-    <col min="8" max="8" width="154.54296875" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="46.7265625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="30.54296875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="17" style="8" customWidth="1"/>
+    <col min="8" max="8" width="138.54296875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="19" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" t="s">
-        <v>104</v>
+      <c r="B1" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{5791E142-4B79-4E31-BCC2-A380DADEEAF1}"/>
+  <autoFilter ref="A1:H1" xr:uid="{B7EB6E73-7A47-4B22-A88C-5BA601D79630}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GetInventory - Default.xlsx
+++ b/GetInventory - Default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PycharmProjects\GetInventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C451E7-E9CA-40B0-B442-F2DBD06FEAB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EBFEA4-C158-4091-A023-51841AE1ED66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20700" yWindow="3110" windowWidth="17270" windowHeight="10780" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="760" windowWidth="15960" windowHeight="10800" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="227">
   <si>
     <t>Username</t>
   </si>
@@ -708,10 +708,31 @@
     <t>https://github.com/tc45/GetInventory</t>
   </si>
   <si>
-    <t>c:\temp\GetInventory\Customer\Project</t>
-  </si>
-  <si>
-    <t>Site1</t>
+    <t>myusername</t>
+  </si>
+  <si>
+    <t>mypassword</t>
+  </si>
+  <si>
+    <t>mysecret</t>
+  </si>
+  <si>
+    <t>c:\temp\GetInventory\XYZ_Corporation\Network Discovery</t>
+  </si>
+  <si>
+    <t>NYC-1</t>
+  </si>
+  <si>
+    <t>10.1.1.1</t>
+  </si>
+  <si>
+    <t>10.1.1.2</t>
+  </si>
+  <si>
+    <t>10.1.1.3</t>
+  </si>
+  <si>
+    <t>10.1.1.4</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1484,9 @@
   </sheetPr>
   <dimension ref="A1:BC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1500,7 +1523,9 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="22" t="s">
+        <v>218</v>
+      </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
@@ -1515,7 +1540,9 @@
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="24" t="s">
+        <v>219</v>
+      </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
@@ -1530,7 +1557,9 @@
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="24" t="s">
+        <v>220</v>
+      </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -1544,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -1557,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
@@ -1733,8 +1762,25 @@
         <v>205</v>
       </c>
     </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+      <c r="A10" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
@@ -1952,7 +1998,7 @@
     <mergeCell ref="B5:G5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="5">
+  <dataValidations count="5">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B991:B1225 D8:D14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"ssh, telnet"</formula1>
     </dataValidation>

--- a/GetInventory - Default.xlsx
+++ b/GetInventory - Default.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PycharmProjects\GetInventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\GetInventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EBFEA4-C158-4091-A023-51841AE1ED66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D09F1B-24D2-4A17-B894-D808CF61C499}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="760" windowWidth="15960" windowHeight="10800" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="179">
   <si>
     <t>Username</t>
   </si>
@@ -120,9 +120,6 @@
     <t>show ip route</t>
   </si>
   <si>
-    <t xml:space="preserve">Below are the settings for the behavior of this application. </t>
-  </si>
-  <si>
     <t>Gather version information</t>
   </si>
   <si>
@@ -282,18 +279,6 @@
     <t>sh cdp neigh det</t>
   </si>
   <si>
-    <t>Jumpserver Username</t>
-  </si>
-  <si>
-    <t>Jumpserver Password</t>
-  </si>
-  <si>
-    <t>Jumpserver Enabled</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Collection Date/Time</t>
   </si>
   <si>
@@ -384,21 +369,6 @@
     <t>Capabilities</t>
   </si>
   <si>
-    <t>cisco_nxos</t>
-  </si>
-  <si>
-    <t>172.30.254.109</t>
-  </si>
-  <si>
-    <t>172.30.254.108</t>
-  </si>
-  <si>
-    <t>USASH000COMCR03</t>
-  </si>
-  <si>
-    <t>USASH000COMCS03</t>
-  </si>
-  <si>
     <t>Tunnel IF</t>
   </si>
   <si>
@@ -450,54 +420,6 @@
     <t>VLAN IF - Active</t>
   </si>
   <si>
-    <t>cisco_ios</t>
-  </si>
-  <si>
-    <t>Ashburn</t>
-  </si>
-  <si>
-    <t>USASH000COMCR01</t>
-  </si>
-  <si>
-    <t>USASH000COMCR02</t>
-  </si>
-  <si>
-    <t>USASH000COMCR04</t>
-  </si>
-  <si>
-    <t>USASH000COMCR05</t>
-  </si>
-  <si>
-    <t>USASH000COMCR06</t>
-  </si>
-  <si>
-    <t>USASH000COMCR07</t>
-  </si>
-  <si>
-    <t>USASH000COMCS01</t>
-  </si>
-  <si>
-    <t>USASH000COMCS02</t>
-  </si>
-  <si>
-    <t>USASH000COMCS04</t>
-  </si>
-  <si>
-    <t>USASH000COMCS05</t>
-  </si>
-  <si>
-    <t>USASH000COMCS06</t>
-  </si>
-  <si>
-    <t>USASH000COMCS07</t>
-  </si>
-  <si>
-    <t>USASH000COMCS08</t>
-  </si>
-  <si>
-    <t>USASH000COMCS09</t>
-  </si>
-  <si>
     <t>show ip ospf neighbors</t>
   </si>
   <si>
@@ -534,12 +456,6 @@
     <t>show logging</t>
   </si>
   <si>
-    <t>CR11</t>
-  </si>
-  <si>
-    <t>CR12</t>
-  </si>
-  <si>
     <t>Device</t>
   </si>
   <si>
@@ -567,18 +483,6 @@
     <t>GATHER_ROUTE</t>
   </si>
   <si>
-    <t>GATHER_OSPF</t>
-  </si>
-  <si>
-    <t>Gather OSPF Info</t>
-  </si>
-  <si>
-    <t>GATHER_EIGRP</t>
-  </si>
-  <si>
-    <t>Gather EIGRP Info</t>
-  </si>
-  <si>
     <t>GATHER_BGP</t>
   </si>
   <si>
@@ -594,33 +498,6 @@
     <t>GATHER_COMMANDS</t>
   </si>
   <si>
-    <t>JUMP_ENABLED</t>
-  </si>
-  <si>
-    <t>JUMP_USERNAME</t>
-  </si>
-  <si>
-    <t>jump_user1</t>
-  </si>
-  <si>
-    <t>JUMP_PASSWOD</t>
-  </si>
-  <si>
-    <t>jump_pass1</t>
-  </si>
-  <si>
-    <t>MULTITHREAD</t>
-  </si>
-  <si>
-    <t>MultiThread</t>
-  </si>
-  <si>
-    <t>MULTITHREAD_MAX</t>
-  </si>
-  <si>
-    <t>MultiThread - Max Threads</t>
-  </si>
-  <si>
     <t>Gather LLDP information</t>
   </si>
   <si>
@@ -630,9 +507,6 @@
     <t>Gather ARP Information</t>
   </si>
   <si>
-    <t>Gather logging (to CSV)</t>
-  </si>
-  <si>
     <t>GATHER_LOGGING</t>
   </si>
   <si>
@@ -663,15 +537,6 @@
     <t>Five Minute CPU</t>
   </si>
   <si>
-    <t>VTP Mode</t>
-  </si>
-  <si>
-    <t>VTP Version</t>
-  </si>
-  <si>
-    <t>VTP Password</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -702,37 +567,28 @@
     <t>IOS Filename</t>
   </si>
   <si>
+    <t>c:\temp\GetInventory\XYZ_CORP\Project_X</t>
+  </si>
+  <si>
+    <t>Site_NYC-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below are the settings for the behavior of this application. Toggle the features to No to turn the features off.  </t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
     <t>GetInventory</t>
   </si>
   <si>
     <t>https://github.com/tc45/GetInventory</t>
-  </si>
-  <si>
-    <t>myusername</t>
-  </si>
-  <si>
-    <t>mypassword</t>
-  </si>
-  <si>
-    <t>mysecret</t>
-  </si>
-  <si>
-    <t>c:\temp\GetInventory\XYZ_Corporation\Network Discovery</t>
-  </si>
-  <si>
-    <t>NYC-1</t>
-  </si>
-  <si>
-    <t>10.1.1.1</t>
-  </si>
-  <si>
-    <t>10.1.1.2</t>
-  </si>
-  <si>
-    <t>10.1.1.3</t>
-  </si>
-  <si>
-    <t>10.1.1.4</t>
   </si>
 </sst>
 </file>
@@ -742,7 +598,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;**"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,7 +629,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -781,7 +638,7 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -797,31 +654,14 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <strike/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -860,24 +700,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -898,17 +732,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1031,25 +854,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1067,7 +877,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="60"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="60"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="60" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="60"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="60"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="60"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
@@ -1076,100 +910,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="60"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="60"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="60" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="60"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="60"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="60"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="60"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="60"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1180,6 +992,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCAD1568-F77C-4720-8ED6-ACC169A2E444}" name="Table1" displayName="Table1" ref="B4:C14" totalsRowShown="0">
+  <autoFilter ref="B4:C14" xr:uid="{6CF23F91-8E59-4F6E-9346-4D8A553EF581}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{019CBD9B-06DE-46C8-A911-A7CC70C65B79}" name="Option" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{3A37FB10-1795-4A8F-91B5-676681E80EE4}" name="Setting"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1482,515 +1305,557 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:BC68"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.453125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="7" style="12" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="23.26953125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="25.1796875" style="12" customWidth="1"/>
-    <col min="11" max="11" width="16.54296875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="12"/>
-    <col min="14" max="14" width="16" style="12" customWidth="1"/>
-    <col min="15" max="15" width="20" style="12" customWidth="1"/>
-    <col min="16" max="16" width="16" style="12" customWidth="1"/>
-    <col min="17" max="17" width="51.1796875" style="12" customWidth="1"/>
-    <col min="18" max="34" width="4.26953125" style="12" customWidth="1"/>
-    <col min="35" max="45" width="4.453125" style="12" customWidth="1"/>
-    <col min="46" max="46" width="8.7265625" style="12"/>
-    <col min="47" max="47" width="16.7265625" style="12" customWidth="1"/>
-    <col min="48" max="48" width="74.26953125" style="12" customWidth="1"/>
-    <col min="49" max="49" width="54.54296875" style="12" customWidth="1"/>
-    <col min="50" max="50" width="37.26953125" style="12" customWidth="1"/>
-    <col min="51" max="51" width="37.81640625" style="12" customWidth="1"/>
-    <col min="52" max="55" width="8.7265625" style="12"/>
-    <col min="56" max="16384" width="8.7265625" style="21"/>
+    <col min="1" max="1" width="20.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="7" style="18" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="20.54296875" style="18" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="25.1796875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="16.54296875" style="18" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" style="18"/>
+    <col min="14" max="14" width="16" style="18" customWidth="1"/>
+    <col min="15" max="15" width="20" style="18" customWidth="1"/>
+    <col min="16" max="16" width="16" style="18" customWidth="1"/>
+    <col min="17" max="17" width="51.1796875" style="18" customWidth="1"/>
+    <col min="18" max="34" width="4.26953125" style="18" customWidth="1"/>
+    <col min="35" max="45" width="4.453125" style="18" customWidth="1"/>
+    <col min="46" max="46" width="8.7265625" style="18"/>
+    <col min="47" max="47" width="16.7265625" style="18" customWidth="1"/>
+    <col min="48" max="48" width="74.26953125" style="18" customWidth="1"/>
+    <col min="49" max="49" width="54.54296875" style="18" customWidth="1"/>
+    <col min="50" max="50" width="37.26953125" style="18" customWidth="1"/>
+    <col min="51" max="51" width="37.81640625" style="18" customWidth="1"/>
+    <col min="52" max="52" width="8.7265625" style="18"/>
+    <col min="53" max="16384" width="8.7265625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:52" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="I1" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:55" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1" s="33"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+    </row>
+    <row r="2" spans="1:52" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="I2" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="J2" s="20"/>
-    </row>
-    <row r="3" spans="1:55" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="15" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="K2" s="32"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="17"/>
+    </row>
+    <row r="3" spans="1:52" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:55" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="15" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="17"/>
+      <c r="AR3" s="17"/>
+      <c r="AS3" s="17"/>
+      <c r="AT3" s="17"/>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="17"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="17"/>
+      <c r="AZ3" s="17"/>
+    </row>
+    <row r="4" spans="1:52" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:55" s="11" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="16" t="s">
+      <c r="B4" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="17"/>
+    </row>
+    <row r="5" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:55" s="11" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:55" s="38" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="B7" s="31" t="s">
+      <c r="B5" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="17"/>
+      <c r="AO5" s="17"/>
+      <c r="AP5" s="17"/>
+      <c r="AQ5" s="17"/>
+      <c r="AR5" s="17"/>
+      <c r="AS5" s="17"/>
+      <c r="AT5" s="17"/>
+      <c r="AU5" s="17"/>
+      <c r="AV5" s="17"/>
+      <c r="AW5" s="17"/>
+      <c r="AX5" s="17"/>
+      <c r="AY5" s="17"/>
+      <c r="AZ5" s="17"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="17"/>
+    </row>
+    <row r="7" spans="1:52" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="X7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE7" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF7" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="R7" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="S7" s="33" t="s">
+      <c r="AG7" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI7" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ7" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK7" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL7" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM7" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN7" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO7" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP7" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ7" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="T7" s="33" t="s">
+      <c r="AR7" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS7" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="AT7" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU7" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="U7" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="V7" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="W7" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="X7" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y7" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z7" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA7" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB7" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC7" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD7" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE7" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF7" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG7" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH7" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI7" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ7" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK7" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="AL7" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM7" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN7" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO7" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP7" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ7" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AR7" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="AS7" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="AT7" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU7" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="AV7" s="30" t="s">
+      <c r="AV7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AW7" s="30" t="s">
+      <c r="AW7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AX7" s="30" t="s">
+      <c r="AX7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AY7" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="AZ7" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="BA7" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="BB7" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="BC7" s="37" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
-    </row>
-    <row r="50" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H50" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H51" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H52" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K52" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H53" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H54" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J54" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="55" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H55" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H56" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J56" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H57" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="58" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H58" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J58" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H59" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J59" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H60" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J60" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H61" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H62" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="I62" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J62" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H63" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J63" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="64" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H64" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J64" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H65" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="I65" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J65" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H66" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J66" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="67" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H67" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="J67" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="68" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H68" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="J68" s="12" t="s">
-        <v>110</v>
-      </c>
+      <c r="AZ7" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A10" s="19"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A12" s="19"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A14" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="8">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="BD8:XFD1048576"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <mergeCells count="7">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -2016,7 +1881,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{6AC0859C-3AC0-435D-841D-899E61904F91}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{A786D5C6-BF65-4E6F-A2BF-F288E009CFAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2030,7 +1895,7 @@
   </sheetPr>
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -2096,92 +1961,92 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2194,234 +2059,170 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.81640625" style="3" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="30.7265625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
-        <v>22</v>
-      </c>
+    <row r="1" spans="1:3" ht="31" x14ac:dyDescent="0.7">
+      <c r="B1" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10"/>
+      <c r="B2" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>136</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>28</v>
+        <v>142</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>28</v>
+        <v>143</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>28</v>
+        <v>145</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>179</v>
+      <c r="A14" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" s="40">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20" xr:uid="{84C89501-BA64-4B1A-82F7-395E9FE12332}">
-      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19 C3:C16" xr:uid="{ADDFE260-4923-4EAC-8D9C-F548263FE9C8}">
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C14" xr:uid="{ADDFE260-4923-4EAC-8D9C-F548263FE9C8}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2448,10 +2249,10 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2484,16 +2285,16 @@
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2545,94 +2346,94 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" t="s">
-        <v>68</v>
-      </c>
       <c r="N1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
-        <v>49</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" t="s">
         <v>51</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>52</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>53</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>54</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>55</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>56</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>57</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2669,34 +2470,34 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2731,34 +2532,34 @@
         <v>5</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2794,28 +2595,28 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" t="s">
-        <v>42</v>
-      </c>
       <c r="I1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2849,22 +2650,22 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2894,16 +2695,16 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2942,31 +2743,31 @@
         <v>5</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="I1" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/GetInventory - Default.xlsx
+++ b/GetInventory - Default.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\GetInventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PycharmProjects\GetInventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D09F1B-24D2-4A17-B894-D808CF61C499}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0F67E2-A4C2-43F7-A57B-AD49B3D4BE2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4250" yWindow="6070" windowWidth="15840" windowHeight="9470" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -570,9 +570,6 @@
     <t>c:\temp\GetInventory\XYZ_CORP\Project_X</t>
   </si>
   <si>
-    <t>Site_NYC-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Below are the settings for the behavior of this application. Toggle the features to No to turn the features off.  </t>
   </si>
   <si>
@@ -589,6 +586,9 @@
   </si>
   <si>
     <t>https://github.com/tc45/GetInventory</t>
+  </si>
+  <si>
+    <t>Site_1</t>
   </si>
 </sst>
 </file>
@@ -910,21 +910,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -942,29 +940,31 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1308,7 +1308,7 @@
   <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1343,21 +1343,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
-      <c r="J1" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="K1" s="33"/>
+      <c r="J1" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="30"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
@@ -1401,21 +1401,21 @@
       <c r="AZ1" s="17"/>
     </row>
     <row r="2" spans="1:52" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
-      <c r="J2" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="K2" s="32"/>
+      <c r="J2" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="31"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
@@ -1459,15 +1459,15 @@
       <c r="AZ2" s="17"/>
     </row>
     <row r="3" spans="1:52" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -1515,17 +1515,17 @@
       <c r="AZ3" s="17"/>
     </row>
     <row r="4" spans="1:52" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -1573,17 +1573,17 @@
       <c r="AZ4" s="17"/>
     </row>
     <row r="5" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="B5" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -1852,18 +1852,18 @@
       <c r="A14" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="7">
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="5">
+  <dataValidations disablePrompts="1" count="5">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B991:B1225 D8:D14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"ssh, telnet"</formula1>
     </dataValidation>
@@ -2068,36 +2068,36 @@
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.81640625" style="3" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="28"/>
+    <col min="2" max="2" width="30.7265625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31" x14ac:dyDescent="0.7">
-      <c r="B1" s="31" t="s">
-        <v>176</v>
+      <c r="B1" s="22" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
-      <c r="B2" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="30"/>
+      <c r="B2" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">

--- a/GetInventory - Default.xlsx
+++ b/GetInventory - Default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PycharmProjects\GetInventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0F67E2-A4C2-43F7-A57B-AD49B3D4BE2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041A5C74-868D-41E2-B26F-F3CA98600B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4250" yWindow="6070" windowWidth="15840" windowHeight="9470" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4930" yWindow="6750" windowWidth="17740" windowHeight="12960" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -956,9 +956,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -966,6 +963,9 @@
     <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1308,7 +1308,7 @@
   <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1404,12 +1404,12 @@
       <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="31" t="s">
@@ -1462,12 +1462,12 @@
       <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -1863,7 +1863,7 @@
     <mergeCell ref="B3:G3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="5">
+  <dataValidations count="5">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B991:B1225 D8:D14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"ssh, telnet"</formula1>
     </dataValidation>
@@ -1873,7 +1873,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34:B990" xr:uid="{9E79B49A-5F92-4A71-B3FE-85893E55E1CA}">
       <formula1>"Yes,No,Completed"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C30:C33 J51:J68 C9:C27" xr:uid="{CCAE8AFF-8032-479D-AB64-6701CB445FD3}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C30:C33 J51:J68 C8:C27" xr:uid="{CCAE8AFF-8032-479D-AB64-6701CB445FD3}">
       <formula1>"cisco_ios, cisco_nxos, autodetect"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B30:B33 I51:I66 B9:B27" xr:uid="{6B6EFB58-779E-4E07-AADC-F635F65BB02B}">
@@ -2080,10 +2080,10 @@
     </row>
     <row r="2" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="21"/>

--- a/GetInventory - Default.xlsx
+++ b/GetInventory - Default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PycharmProjects\GetInventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041A5C74-868D-41E2-B26F-F3CA98600B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B38432-CCC1-47EC-AD84-5262169FD3F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4930" yWindow="6750" windowWidth="17740" windowHeight="12960" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="178">
   <si>
     <t>Username</t>
   </si>
@@ -507,9 +507,6 @@
     <t>Gather ARP Information</t>
   </si>
   <si>
-    <t>GATHER_LOGGING</t>
-  </si>
-  <si>
     <t>Host</t>
   </si>
   <si>
@@ -570,25 +567,25 @@
     <t>c:\temp\GetInventory\XYZ_CORP\Project_X</t>
   </si>
   <si>
-    <t xml:space="preserve">Below are the settings for the behavior of this application. Toggle the features to No to turn the features off.  </t>
-  </si>
-  <si>
     <t>Option</t>
   </si>
   <si>
     <t>Setting</t>
   </si>
   <si>
+    <t>GetInventory</t>
+  </si>
+  <si>
+    <t>https://github.com/tc45/GetInventory</t>
+  </si>
+  <si>
+    <t>Site_1</t>
+  </si>
+  <si>
+    <t>These settings will toggle the behavior of this application. Change the setting field to 'No' for any features you want to disable.</t>
+  </si>
+  <si>
     <t>Settings</t>
-  </si>
-  <si>
-    <t>GetInventory</t>
-  </si>
-  <si>
-    <t>https://github.com/tc45/GetInventory</t>
-  </si>
-  <si>
-    <t>Site_1</t>
   </si>
 </sst>
 </file>
@@ -637,14 +634,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -656,6 +645,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -857,9 +854,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -911,18 +908,17 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -944,7 +940,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -967,6 +963,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1308,7 +1308,7 @@
   <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1343,21 +1343,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
-      <c r="J1" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="K1" s="30"/>
+      <c r="J1" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="29"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
@@ -1401,21 +1401,21 @@
       <c r="AZ1" s="17"/>
     </row>
     <row r="2" spans="1:52" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
-      <c r="J2" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2" s="31"/>
+      <c r="J2" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" s="30"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
@@ -1459,15 +1459,15 @@
       <c r="AZ2" s="17"/>
     </row>
     <row r="3" spans="1:52" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -1515,17 +1515,17 @@
       <c r="AZ3" s="17"/>
     </row>
     <row r="4" spans="1:52" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
+      <c r="B4" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -1573,17 +1573,17 @@
       <c r="AZ4" s="17"/>
     </row>
     <row r="5" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
+      <c r="B5" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -1686,13 +1686,13 @@
     </row>
     <row r="7" spans="1:52" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>6</v>
@@ -1734,7 +1734,7 @@
         <v>9</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R7" s="14" t="s">
         <v>79</v>
@@ -1815,13 +1815,13 @@
         <v>121</v>
       </c>
       <c r="AR7" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS7" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="AS7" s="15" t="s">
+      <c r="AT7" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="AT7" s="15" t="s">
-        <v>160</v>
       </c>
       <c r="AU7" s="16" t="s">
         <v>85</v>
@@ -1839,7 +1839,7 @@
         <v>29</v>
       </c>
       <c r="AZ7" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.35">
@@ -2059,10 +2059,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F5" sqref="F5:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2070,39 +2070,38 @@
     <col min="1" max="1" width="19.81640625" style="3" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="30.7265625" style="20" customWidth="1"/>
     <col min="3" max="3" width="19.81640625" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="20"/>
+    <col min="4" max="5" width="9.1796875" style="20"/>
+    <col min="6" max="6" width="53.7265625" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31" x14ac:dyDescent="0.7">
-      <c r="B1" s="22" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="31" x14ac:dyDescent="0.7">
+      <c r="A1" s="10"/>
+      <c r="B1" s="37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="36"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>22</v>
@@ -2110,10 +2109,12 @@
       <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F5" s="35"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>150</v>
@@ -2121,10 +2122,11 @@
       <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F6" s="35"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>149</v>
@@ -2132,10 +2134,11 @@
       <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>23</v>
@@ -2143,10 +2146,11 @@
       <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F8" s="35"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>24</v>
@@ -2154,10 +2158,11 @@
       <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F9" s="35"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>148</v>
@@ -2165,10 +2170,11 @@
       <c r="C10" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F10" s="35"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>25</v>
@@ -2177,9 +2183,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>144</v>
@@ -2188,9 +2194,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>146</v>
@@ -2199,9 +2205,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>151</v>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>26</v>
@@ -2210,18 +2216,23 @@
         <v>27</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="F5:F10"/>
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C14" xr:uid="{ADDFE260-4923-4EAC-8D9C-F548263FE9C8}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2532,34 +2543,34 @@
         <v>5</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>165</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>34</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2743,7 +2754,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>38</v>
@@ -2755,7 +2766,7 @@
         <v>40</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>42</v>
@@ -2767,7 +2778,7 @@
         <v>104</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/GetInventory - Default.xlsx
+++ b/GetInventory - Default.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PycharmProjects\GetInventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://insightonline-my.sharepoint.com/personal/ruben_gutierrezmartinez_insight_com/Documents/Documents/GitHub/GetInventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B38432-CCC1-47EC-AD84-5262169FD3F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{3BF8DEBB-66D5-4598-82DF-D5459BDD8E12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3DAEDAF1-643A-4BA0-A2F9-24005E5BF250}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="849" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="181">
   <si>
     <t>Username</t>
   </si>
@@ -513,9 +513,6 @@
     <t>Parse Method</t>
   </si>
   <si>
-    <t>Elapsed Time</t>
-  </si>
-  <si>
     <t>Chassis ID</t>
   </si>
   <si>
@@ -586,6 +583,18 @@
   </si>
   <si>
     <t>Settings</t>
+  </si>
+  <si>
+    <t>Fifteen Minute CPU</t>
+  </si>
+  <si>
+    <t>MAX_THREADS</t>
+  </si>
+  <si>
+    <t>Number of Concurrent Connections</t>
+  </si>
+  <si>
+    <t>Elapsed Time (Seconds)</t>
   </si>
 </sst>
 </file>
@@ -658,7 +667,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -668,12 +677,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,12 +859,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -878,7 +880,7 @@
       <alignment textRotation="60"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="60"/>
       <protection locked="0"/>
     </xf>
@@ -886,19 +888,15 @@
       <alignment textRotation="60" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="60"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="60"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="60"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
@@ -907,66 +905,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -995,8 +993,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCAD1568-F77C-4720-8ED6-ACC169A2E444}" name="Table1" displayName="Table1" ref="B4:C14" totalsRowShown="0">
-  <autoFilter ref="B4:C14" xr:uid="{6CF23F91-8E59-4F6E-9346-4D8A553EF581}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCAD1568-F77C-4720-8ED6-ACC169A2E444}" name="Table1" displayName="Table1" ref="B4:C15" totalsRowShown="0">
+  <autoFilter ref="B4:C15" xr:uid="{6CF23F91-8E59-4F6E-9346-4D8A553EF581}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{019CBD9B-06DE-46C8-A911-A7CC70C65B79}" name="Option" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3A37FB10-1795-4A8F-91B5-676681E80EE4}" name="Setting"/>
@@ -1305,551 +1303,560 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AZ14"/>
+  <dimension ref="A1:BA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="7" style="18" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" style="18" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" style="18" customWidth="1"/>
-    <col min="8" max="8" width="20.54296875" style="18" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="25.1796875" style="18" customWidth="1"/>
-    <col min="11" max="11" width="16.54296875" style="18" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" style="18" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="18"/>
-    <col min="14" max="14" width="16" style="18" customWidth="1"/>
-    <col min="15" max="15" width="20" style="18" customWidth="1"/>
-    <col min="16" max="16" width="16" style="18" customWidth="1"/>
-    <col min="17" max="17" width="51.1796875" style="18" customWidth="1"/>
-    <col min="18" max="34" width="4.26953125" style="18" customWidth="1"/>
-    <col min="35" max="45" width="4.453125" style="18" customWidth="1"/>
-    <col min="46" max="46" width="8.7265625" style="18"/>
-    <col min="47" max="47" width="16.7265625" style="18" customWidth="1"/>
-    <col min="48" max="48" width="74.26953125" style="18" customWidth="1"/>
-    <col min="49" max="49" width="54.54296875" style="18" customWidth="1"/>
-    <col min="50" max="50" width="37.26953125" style="18" customWidth="1"/>
-    <col min="51" max="51" width="37.81640625" style="18" customWidth="1"/>
-    <col min="52" max="52" width="8.7265625" style="18"/>
-    <col min="53" max="16384" width="8.7265625" style="17"/>
+    <col min="1" max="1" width="20.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="7" style="16" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="16" customWidth="1"/>
+    <col min="10" max="10" width="25.21875" style="16" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" style="16" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" style="16" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" style="16"/>
+    <col min="14" max="14" width="16" style="16" customWidth="1"/>
+    <col min="15" max="15" width="20" style="16" customWidth="1"/>
+    <col min="16" max="16" width="16" style="16" customWidth="1"/>
+    <col min="17" max="17" width="51.21875" style="16" customWidth="1"/>
+    <col min="18" max="34" width="4.21875" style="16" customWidth="1"/>
+    <col min="35" max="45" width="4.44140625" style="16" customWidth="1"/>
+    <col min="46" max="47" width="8.77734375" style="16"/>
+    <col min="48" max="48" width="16.77734375" style="16" customWidth="1"/>
+    <col min="49" max="49" width="74.21875" style="16" customWidth="1"/>
+    <col min="50" max="50" width="54.5546875" style="16" customWidth="1"/>
+    <col min="51" max="51" width="37.21875" style="16" customWidth="1"/>
+    <col min="52" max="52" width="37.77734375" style="16" customWidth="1"/>
+    <col min="53" max="53" width="8.77734375" style="16"/>
+    <col min="54" max="16384" width="8.77734375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="29" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="28"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="15"/>
+      <c r="AZ1" s="15"/>
+      <c r="BA1" s="15"/>
+    </row>
+    <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-    </row>
-    <row r="2" spans="1:52" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+    </row>
+    <row r="3" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+    </row>
+    <row r="4" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
+    </row>
+    <row r="5" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="15"/>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="15"/>
+      <c r="AZ5" s="15"/>
+      <c r="BA5" s="15"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15"/>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+    </row>
+    <row r="7" spans="1:53" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="17"/>
-      <c r="AU2" s="17"/>
-      <c r="AV2" s="17"/>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="17"/>
-    </row>
-    <row r="3" spans="1:52" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="17"/>
-      <c r="AK3" s="17"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="17"/>
-      <c r="AN3" s="17"/>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="17"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="17"/>
-      <c r="AS3" s="17"/>
-      <c r="AT3" s="17"/>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="17"/>
-      <c r="AW3" s="17"/>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="17"/>
-      <c r="AZ3" s="17"/>
-    </row>
-    <row r="4" spans="1:52" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="H7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA7" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB7" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC7" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE7" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF7" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG7" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH7" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI7" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL7" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM7" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN7" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO7" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP7" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ7" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR7" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS7" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT7" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU7" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="17"/>
-      <c r="AO4" s="17"/>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="17"/>
-      <c r="AS4" s="17"/>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
-      <c r="AV4" s="17"/>
-      <c r="AW4" s="17"/>
-      <c r="AX4" s="17"/>
-      <c r="AY4" s="17"/>
-      <c r="AZ4" s="17"/>
-    </row>
-    <row r="5" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="17"/>
-      <c r="AO5" s="17"/>
-      <c r="AP5" s="17"/>
-      <c r="AQ5" s="17"/>
-      <c r="AR5" s="17"/>
-      <c r="AS5" s="17"/>
-      <c r="AT5" s="17"/>
-      <c r="AU5" s="17"/>
-      <c r="AV5" s="17"/>
-      <c r="AW5" s="17"/>
-      <c r="AX5" s="17"/>
-      <c r="AY5" s="17"/>
-      <c r="AZ5" s="17"/>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="17"/>
-      <c r="AO6" s="17"/>
-      <c r="AP6" s="17"/>
-      <c r="AQ6" s="17"/>
-      <c r="AR6" s="17"/>
-      <c r="AS6" s="17"/>
-      <c r="AT6" s="17"/>
-      <c r="AU6" s="17"/>
-      <c r="AV6" s="17"/>
-      <c r="AW6" s="17"/>
-      <c r="AX6" s="17"/>
-      <c r="AY6" s="17"/>
-      <c r="AZ6" s="17"/>
-    </row>
-    <row r="7" spans="1:52" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y7" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z7" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA7" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB7" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC7" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD7" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE7" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF7" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG7" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="AH7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI7" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ7" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK7" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL7" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM7" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN7" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO7" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP7" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ7" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR7" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS7" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="AT7" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="AU7" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AW7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX7" s="11" t="s">
+      <c r="AY7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AY7" s="11" t="s">
+      <c r="AZ7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AZ7" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
+      <c r="BA7" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
@@ -1863,21 +1870,15 @@
     <mergeCell ref="B3:G3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B991:B1225 D8:D14" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D8:D14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"ssh, telnet"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C34:C1124" xr:uid="{4F3676CE-4307-4242-A50B-53311B37CE11}">
-      <formula1>"cisco-ios, cisco-nxos, autodetect"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34:B990" xr:uid="{9E79B49A-5F92-4A71-B3FE-85893E55E1CA}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8:B50" xr:uid="{6B6EFB58-779E-4E07-AADC-F635F65BB02B}">
       <formula1>"Yes,No,Completed"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C30:C33 J51:J68 C8:C27" xr:uid="{CCAE8AFF-8032-479D-AB64-6701CB445FD3}">
-      <formula1>"cisco_ios, cisco_nxos, autodetect"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B30:B33 I51:I66 B9:B27" xr:uid="{6B6EFB58-779E-4E07-AADC-F635F65BB02B}">
-      <formula1>"Yes,No,Completed"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8:C50" xr:uid="{07536D34-EBEF-4E3A-A4E2-26316D39937A}">
+      <formula1>"cisco_ios, cisco_nxos, cisco_xr, autodetect"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1899,152 +1900,152 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.26953125" customWidth="1"/>
+    <col min="1" max="1" width="32.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>133</v>
       </c>
@@ -2062,171 +2063,182 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" style="3" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" style="20" customWidth="1"/>
-    <col min="4" max="5" width="9.1796875" style="20"/>
-    <col min="6" max="6" width="53.7265625" style="20" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="20"/>
+    <col min="1" max="1" width="19.77734375" style="3" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="18" customWidth="1"/>
+    <col min="4" max="5" width="9.21875" style="18"/>
+    <col min="6" max="6" width="53.77734375" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="9.21875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31" x14ac:dyDescent="0.7">
-      <c r="A1" s="10"/>
-      <c r="B1" s="37" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="36" t="s">
+    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A1" s="9"/>
+      <c r="B1" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="36"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="35"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F5" s="34"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="35"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="35"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F7" s="34"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="35"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F8" s="34"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="35"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F9" s="34"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="35"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F10" s="34"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="4">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F5:F10"/>
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C14" xr:uid="{ADDFE260-4923-4EAC-8D9C-F548263FE9C8}">
       <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{53882E5C-0E58-47BD-A166-F975E85C5909}">
+      <formula1>"10,20,30,40,50,60,70,80,90,100"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2248,14 +2260,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="135.81640625" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="135.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2279,19 +2291,19 @@
   </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="66.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="26.7265625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="1" width="25.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="66.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.77734375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.21875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2323,36 +2335,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="25.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
-    <col min="4" max="4" width="44.7265625" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" customWidth="1"/>
-    <col min="7" max="7" width="21.7265625" customWidth="1"/>
-    <col min="8" max="14" width="16.1796875" customWidth="1"/>
-    <col min="15" max="15" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="8" max="14" width="16.21875" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" style="1"/>
-    <col min="18" max="18" width="15.7265625" customWidth="1"/>
-    <col min="19" max="19" width="13.453125" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" style="1"/>
+    <col min="18" max="18" width="15.77734375" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="22" max="22" width="13.1796875" customWidth="1"/>
-    <col min="23" max="23" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.21875" customWidth="1"/>
+    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2464,19 +2476,19 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="17.26953125" customWidth="1"/>
-    <col min="9" max="10" width="17.26953125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="17.21875" customWidth="1"/>
+    <col min="9" max="10" width="17.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2528,49 +2540,49 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="20" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="10"/>
+    <col min="1" max="1" width="25.21875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="20" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9.21875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2588,20 +2600,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="20.81640625" customWidth="1"/>
-    <col min="8" max="8" width="138.54296875" customWidth="1"/>
-    <col min="9" max="9" width="100.453125" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+    <col min="8" max="8" width="138.5546875" customWidth="1"/>
+    <col min="9" max="9" width="100.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2645,18 +2657,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2694,14 +2706,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="25.26953125" customWidth="1"/>
-    <col min="5" max="5" width="27.81640625" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
+    <col min="5" max="5" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2735,50 +2747,50 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="46.7265625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="30.54296875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="17" style="8" customWidth="1"/>
-    <col min="8" max="8" width="138.54296875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="19" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="24.21875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="46.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17" style="7" customWidth="1"/>
+    <col min="8" max="8" width="138.5546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="19" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9.21875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/GetInventory - Default.xlsx
+++ b/GetInventory - Default.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{3BF8DEBB-66D5-4598-82DF-D5459BDD8E12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3DAEDAF1-643A-4BA0-A2F9-24005E5BF250}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="849" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="849" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2062,8 +2062,8 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2291,7 +2291,7 @@
   </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/GetInventory - Default.xlsx
+++ b/GetInventory - Default.xlsx
@@ -1,25 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgutier1\PycharmProjects\GetInventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://insightonline-my.sharepoint.com/personal/ruben_gutierrezmartinez_insight_com/Documents/Documents/GitHub/GetInventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48507D11-7B69-4EA0-9646-E35BDEA069C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{3BF8DEBB-66D5-4598-82DF-D5459BDD8E12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3DAEDAF1-643A-4BA0-A2F9-24005E5BF250}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="849" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="17" r:id="rId1"/>
-    <sheet name="Settings" sheetId="18" r:id="rId2"/>
-    <sheet name="Commands" sheetId="2" r:id="rId3"/>
-    <sheet name="Comments" sheetId="16" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Inventory" sheetId="12" r:id="rId2"/>
+    <sheet name="Interfaces" sheetId="5" r:id="rId3"/>
+    <sheet name="Routes" sheetId="4" r:id="rId4"/>
+    <sheet name="BGP" sheetId="15" r:id="rId5"/>
+    <sheet name="CDP" sheetId="3" r:id="rId6"/>
+    <sheet name="ARP" sheetId="8" r:id="rId7"/>
+    <sheet name="MAC" sheetId="9" r:id="rId8"/>
+    <sheet name="LLDP" sheetId="14" r:id="rId9"/>
+    <sheet name="Commands" sheetId="2" r:id="rId10"/>
+    <sheet name="Settings" sheetId="13" r:id="rId11"/>
+    <sheet name="Errors" sheetId="7" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Comments!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">ARP!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">BGP!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CDP!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Errors!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Interfaces!$A$1:$AE$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Inventory!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">LLDP!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">MAC!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Routes!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="181">
   <si>
     <t>Username</t>
   </si>
@@ -68,6 +84,9 @@
     <t>IOS Version</t>
   </si>
   <si>
+    <t>Connection Error</t>
+  </si>
+  <si>
     <t>show clock</t>
   </si>
   <si>
@@ -101,6 +120,9 @@
     <t>show ip route</t>
   </si>
   <si>
+    <t>Gather version information</t>
+  </si>
+  <si>
     <t>Gather interface information</t>
   </si>
   <si>
@@ -116,9 +138,135 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>Command Output</t>
+  </si>
+  <si>
+    <t>JSON Output</t>
+  </si>
+  <si>
+    <t>Subnet</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>CIDR</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Next Hop IP</t>
+  </si>
+  <si>
+    <t>Next Hop IF</t>
+  </si>
+  <si>
     <t>Uptime</t>
   </si>
   <si>
+    <t>Local Port</t>
+  </si>
+  <si>
+    <t>Remote Host</t>
+  </si>
+  <si>
+    <t>Remote Port</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>MGMT IP</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Trunk/Access</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>MAC Add</t>
+  </si>
+  <si>
+    <t>IP Add</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>MTU</t>
+  </si>
+  <si>
+    <t>Duplex</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>Encap</t>
+  </si>
+  <si>
+    <t>Last Input</t>
+  </si>
+  <si>
+    <t>Last Output</t>
+  </si>
+  <si>
+    <t>Queue Strategy</t>
+  </si>
+  <si>
+    <t>Input Rate</t>
+  </si>
+  <si>
+    <t>Output Rate</t>
+  </si>
+  <si>
+    <t>Input Packets</t>
+  </si>
+  <si>
+    <t>Output Packets</t>
+  </si>
+  <si>
+    <t>Input Errors</t>
+  </si>
+  <si>
+    <t>Output Errors</t>
+  </si>
+  <si>
+    <t>Access VLAN</t>
+  </si>
+  <si>
+    <t>Trunk Allowed</t>
+  </si>
+  <si>
+    <t>Trunk Forwarding</t>
+  </si>
+  <si>
+    <t>L2/L3</t>
+  </si>
+  <si>
+    <t>Short IF</t>
+  </si>
+  <si>
+    <t>Native VLAN</t>
+  </si>
+  <si>
     <t>show vlan</t>
   </si>
   <si>
@@ -176,9 +324,30 @@
     <t>HundredGig IF</t>
   </si>
   <si>
+    <t>IP Address</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Hardware/MAC</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
+    <t>Destination Address</t>
+  </si>
+  <si>
+    <t>VLAN</t>
+  </si>
+  <si>
+    <t>Destination Port</t>
+  </si>
+  <si>
     <t>Subinterfaces</t>
   </si>
   <si>
@@ -188,6 +357,18 @@
     <t>show ip bgp summary</t>
   </si>
   <si>
+    <t>VRF</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Interface IP</t>
+  </si>
+  <si>
+    <t>Capabilities</t>
+  </si>
+  <si>
     <t>Tunnel IF</t>
   </si>
   <si>
@@ -275,12 +456,48 @@
     <t>show logging</t>
   </si>
   <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Part ID</t>
+  </si>
+  <si>
+    <t>GATHER_VERSION</t>
+  </si>
+  <si>
+    <t>GATHER_ARP</t>
+  </si>
+  <si>
+    <t>GATHER_MAC</t>
+  </si>
+  <si>
+    <t>GATHER_INTERFACE</t>
+  </si>
+  <si>
+    <t>GATHER_CDP</t>
+  </si>
+  <si>
+    <t>GATHER_LLDP</t>
+  </si>
+  <si>
+    <t>GATHER_ROUTE</t>
+  </si>
+  <si>
+    <t>GATHER_BGP</t>
+  </si>
+  <si>
     <t>Gather BGP Info</t>
   </si>
   <si>
+    <t>GATHER_INVENTORY</t>
+  </si>
+  <si>
     <t>Gather Inventory</t>
   </si>
   <si>
+    <t>GATHER_COMMANDS</t>
+  </si>
+  <si>
     <t>Gather LLDP information</t>
   </si>
   <si>
@@ -296,6 +513,15 @@
     <t>Parse Method</t>
   </si>
   <si>
+    <t>Chassis ID</t>
+  </si>
+  <si>
+    <t>Remote Description</t>
+  </si>
+  <si>
+    <t>VLAN ID</t>
+  </si>
+  <si>
     <t>Five Second CPU</t>
   </si>
   <si>
@@ -305,9 +531,39 @@
     <t>Five Minute CPU</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Path Selection</t>
+  </si>
+  <si>
+    <t>Route Source</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Next Hop</t>
+  </si>
+  <si>
+    <t>Local Pref</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>AS Path</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
     <t>IOS Filename</t>
   </si>
   <si>
+    <t>c:\temp\GetInventory\XYZ_CORP\Project_X</t>
+  </si>
+  <si>
     <t>Option</t>
   </si>
   <si>
@@ -320,6 +576,9 @@
     <t>https://github.com/tc45/GetInventory</t>
   </si>
   <si>
+    <t>Site_1</t>
+  </si>
+  <si>
     <t>These settings will toggle the behavior of this application. Change the setting field to 'No' for any features you want to disable.</t>
   </si>
   <si>
@@ -329,61 +588,13 @@
     <t>Fifteen Minute CPU</t>
   </si>
   <si>
+    <t>MAX_THREADS</t>
+  </si>
+  <si>
+    <t>Number of Concurrent Connections</t>
+  </si>
+  <si>
     <t>Elapsed Time (Seconds)</t>
-  </si>
-  <si>
-    <t>Gather ip mroute</t>
-  </si>
-  <si>
-    <t>Host Address</t>
-  </si>
-  <si>
-    <t>Main Sheet Device Excel Line</t>
-  </si>
-  <si>
-    <t>Comment Type</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>Exception Type</t>
-  </si>
-  <si>
-    <t>Debug Message</t>
-  </si>
-  <si>
-    <t>cisco_ios</t>
-  </si>
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>C:\Python\GetInventory\Test</t>
-  </si>
-  <si>
-    <t>10.10.10.1</t>
-  </si>
-  <si>
-    <t>10.10.10.2</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>autodetect</t>
-  </si>
-  <si>
-    <t>Gather AP</t>
-  </si>
-  <si>
-    <t>Gather Running Config</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Apple123</t>
   </si>
 </sst>
 </file>
@@ -393,7 +604,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;**"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +616,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -449,23 +666,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,11 +708,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -658,17 +855,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="60"/>
@@ -686,7 +892,7 @@
       <alignment textRotation="60"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="60"/>
       <protection locked="0"/>
     </xf>
@@ -696,24 +902,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -730,11 +935,11 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -754,12 +959,14 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -786,11 +993,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5A4B064-768B-4DFF-9BE1-7CD40F428307}" name="Table1" displayName="Table1" ref="A4:B16" totalsRowShown="0">
-  <autoFilter ref="A4:B16" xr:uid="{6CF23F91-8E59-4F6E-9346-4D8A553EF581}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCAD1568-F77C-4720-8ED6-ACC169A2E444}" name="Table1" displayName="Table1" ref="B4:C15" totalsRowShown="0">
+  <autoFilter ref="B4:C15" xr:uid="{6CF23F91-8E59-4F6E-9346-4D8A553EF581}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4A6A8095-0E13-456E-BEE7-0BA23D0F2974}" name="Option" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{B4130F3D-B338-4838-926C-748CDB778951}" name="Setting"/>
+    <tableColumn id="1" xr3:uid="{019CBD9B-06DE-46C8-A911-A7CC70C65B79}" name="Option" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{3A37FB10-1795-4A8F-91B5-676681E80EE4}" name="Setting"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1092,546 +1299,564 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AD8313-0822-4BBC-9489-6D9D898DEC2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor theme="9" tint="-0.499984740745262"/>
+    <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AW10"/>
+  <dimension ref="A1:BA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="7" style="10" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="10"/>
-    <col min="14" max="14" width="16" style="10" customWidth="1"/>
-    <col min="15" max="15" width="20" style="10" customWidth="1"/>
-    <col min="16" max="16" width="16" style="10" customWidth="1"/>
-    <col min="17" max="17" width="51.28515625" style="10" customWidth="1"/>
-    <col min="18" max="34" width="4.28515625" style="10" customWidth="1"/>
-    <col min="35" max="45" width="4.42578125" style="10" customWidth="1"/>
-    <col min="46" max="47" width="8.7109375" style="10"/>
-    <col min="48" max="48" width="16.7109375" style="10" customWidth="1"/>
-    <col min="49" max="49" width="20.85546875" style="10" customWidth="1"/>
-    <col min="50" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="20.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="7" style="16" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="16" customWidth="1"/>
+    <col min="10" max="10" width="25.21875" style="16" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" style="16" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" style="16" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" style="16"/>
+    <col min="14" max="14" width="16" style="16" customWidth="1"/>
+    <col min="15" max="15" width="20" style="16" customWidth="1"/>
+    <col min="16" max="16" width="16" style="16" customWidth="1"/>
+    <col min="17" max="17" width="51.21875" style="16" customWidth="1"/>
+    <col min="18" max="34" width="4.21875" style="16" customWidth="1"/>
+    <col min="35" max="45" width="4.44140625" style="16" customWidth="1"/>
+    <col min="46" max="47" width="8.77734375" style="16"/>
+    <col min="48" max="48" width="16.77734375" style="16" customWidth="1"/>
+    <col min="49" max="49" width="74.21875" style="16" customWidth="1"/>
+    <col min="50" max="50" width="54.5546875" style="16" customWidth="1"/>
+    <col min="51" max="51" width="37.21875" style="16" customWidth="1"/>
+    <col min="52" max="52" width="37.77734375" style="16" customWidth="1"/>
+    <col min="53" max="53" width="8.77734375" style="16"/>
+    <col min="54" max="16384" width="8.77734375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="28"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="15"/>
+      <c r="AZ1" s="15"/>
+      <c r="BA1" s="15"/>
+    </row>
+    <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="29"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+    </row>
+    <row r="3" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+    </row>
+    <row r="4" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
+    </row>
+    <row r="5" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="15"/>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="15"/>
+      <c r="AZ5" s="15"/>
+      <c r="BA5" s="15"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15"/>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+    </row>
+    <row r="7" spans="1:53" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y7" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-    </row>
-    <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27" t="s">
+      <c r="Z7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA7" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="9"/>
-      <c r="AW2" s="9"/>
-    </row>
-    <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="9"/>
-      <c r="AT3" s="9"/>
-      <c r="AU3" s="9"/>
-      <c r="AV3" s="9"/>
-      <c r="AW3" s="9"/>
-    </row>
-    <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="AB7" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC7" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE7" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF7" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG7" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH7" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI7" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL7" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM7" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN7" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO7" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP7" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ7" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR7" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS7" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT7" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU7" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="9"/>
-      <c r="AN4" s="9"/>
-      <c r="AO4" s="9"/>
-      <c r="AP4" s="9"/>
-      <c r="AQ4" s="9"/>
-      <c r="AR4" s="9"/>
-      <c r="AS4" s="9"/>
-      <c r="AT4" s="9"/>
-      <c r="AU4" s="9"/>
-      <c r="AV4" s="9"/>
-      <c r="AW4" s="9"/>
-    </row>
-    <row r="5" spans="1:49" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="9"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="9"/>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="9"/>
-      <c r="AR5" s="9"/>
-      <c r="AS5" s="9"/>
-      <c r="AT5" s="9"/>
-      <c r="AU5" s="9"/>
-      <c r="AV5" s="9"/>
-      <c r="AW5" s="9"/>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-    </row>
-    <row r="7" spans="1:49" ht="113.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="W7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="X7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR7" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS7" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT7" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU7" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AW7" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="C10" s="10" t="s">
-        <v>111</v>
-      </c>
+      <c r="AY7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BA7" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
@@ -1644,168 +1869,376 @@
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Unsupported Device Type" sqref="C9:C50" xr:uid="{07536D34-EBEF-4E3A-A4E2-26316D39937A}">
-      <formula1>"cisco_ios, cisco_nxos, cisco_xr, cisco_wlc, autodetect"</formula1>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D8:D14" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"ssh, telnet"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B8:B50" xr:uid="{6B6EFB58-779E-4E07-AADC-F635F65BB02B}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8:B50" xr:uid="{6B6EFB58-779E-4E07-AADC-F635F65BB02B}">
       <formula1>"Yes,No,Completed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D1048576" xr:uid="{432CC29F-BD3A-4BAF-AEC7-BDE511D00797}">
-      <formula1>"ssh, telnet"</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Unsupported Device Type" error="This Device Type is not a known supported type." sqref="C8" xr:uid="{8FAD667D-98CF-4878-BC55-13C912FDC5BE}">
-      <formula1>"cisco_ios, cisco_nxos, cisco_xr, cisco_wlc, autodetect"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8:C50" xr:uid="{07536D34-EBEF-4E3A-A4E2-26316D39937A}">
+      <formula1>"cisco_ios, cisco_nxos, cisco_xr, autodetect"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{DBBC66F9-AD58-4598-8F6D-52813F72B55F}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{A786D5C6-BF65-4E6F-A2BF-F288E009CFAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55444F6B-27C0-4434-AE83-24D9A2E6761B}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71063F6-A136-491C-B6BE-7CD0E59E5434}">
   <sheetPr>
-    <tabColor theme="5"/>
+    <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="11"/>
+    <col min="1" max="1" width="32.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="29"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>90</v>
-      </c>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B52B7A-0E78-473C-A295-A470AB092121}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.77734375" style="3" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="18" customWidth="1"/>
+    <col min="4" max="5" width="9.21875" style="18"/>
+    <col min="6" max="6" width="53.77734375" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="9.21875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A1" s="9"/>
+      <c r="B1" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="35"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="34"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="34"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="34"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="34"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>147</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="2">
+    <mergeCell ref="F5:F10"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B16" xr:uid="{2C3CDB94-7F16-4E16-ACA9-802C1A2A3D9F}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C14" xr:uid="{ADDFE260-4923-4EAC-8D9C-F548263FE9C8}">
       <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{53882E5C-0E58-47BD-A166-F975E85C5909}">
+      <formula1>"10,20,30,40,50,60,70,80,90,100"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1816,223 +2249,552 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71063F6-A136-491C-B6BE-7CD0E59E5434}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A506E66-BE73-4010-89C1-B27022DA27AE}">
   <sheetPr>
-    <tabColor theme="4" tint="-0.249977111117893"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="135.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{0248F7AA-6685-426C-8655-68377CF2D0F7}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162D0406-84F5-4A41-8C46-B9444D7953B9}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="66.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.77734375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.21875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{4D6F41E7-1692-4891-AC77-B13B8D379F92}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5821E7F-5C95-43E1-BE40-8C08E9F62987}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:AE1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="8" max="14" width="16.21875" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" style="1"/>
+    <col min="18" max="18" width="15.77734375" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="22" max="22" width="13.21875" customWidth="1"/>
+    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>78</v>
+      <c r="Q1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AE1" xr:uid="{38A24C36-1446-48BF-9256-3F56744C8470}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0036071-8462-4014-BFE1-13C334A79569}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047E0D6C-A90F-4458-8F88-DCBB97A92454}">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="3" customWidth="1"/>
-    <col min="6" max="7" width="50.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="120.7109375" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="17.21875" customWidth="1"/>
+    <col min="9" max="10" width="17.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="B1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{80748BB0-194A-42A3-8CCB-8259016E618F}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6FC9FF-DE01-4D94-BFE8-F7D1C7137C46}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="20" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9.21875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{A43A6299-C9E8-4F4B-8143-E28CA307070B}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E589F5-01A2-4299-AF7A-D480D45B28D2}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+    <col min="8" max="8" width="138.5546875" customWidth="1"/>
+    <col min="9" max="9" width="100.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="A1:H1" xr:uid="{B7EB6E73-7A47-4B22-A88C-5BA601D79630}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85288D25-E379-4E2E-B1F9-8BFAB0BBD9F7}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{14A5B839-046B-41AC-958C-FC3BA63760D9}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5579F3-805D-4E22-A01C-6507DFABECF0}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
+    <col min="5" max="5" width="27.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{2F1939E0-D7B4-4222-82AB-E2B5B0B6F63F}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824F33BB-1502-4867-AAFF-9DDB5C7C8EE8}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.21875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="46.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17" style="7" customWidth="1"/>
+    <col min="8" max="8" width="138.5546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="19" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9.21875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{B7EB6E73-7A47-4B22-A88C-5BA601D79630}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GetInventory - Default.xlsx
+++ b/GetInventory - Default.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://insightonline-my.sharepoint.com/personal/ruben_gutierrezmartinez_insight_com/Documents/Documents/GitHub/GetInventory/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tony\PycharmProjects\GetInventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{3BF8DEBB-66D5-4598-82DF-D5459BDD8E12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3DAEDAF1-643A-4BA0-A2F9-24005E5BF250}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0026881B-9ACD-4537-89A5-C324CBBD0D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="849" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6840" yWindow="1840" windowWidth="28800" windowHeight="15460" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="186">
   <si>
     <t>Username</t>
   </si>
@@ -595,6 +595,21 @@
   </si>
   <si>
     <t>Elapsed Time (Seconds)</t>
+  </si>
+  <si>
+    <t>192.168.1.192</t>
+  </si>
+  <si>
+    <t>10.1.1.1</t>
+  </si>
+  <si>
+    <t>cisco_ios</t>
+  </si>
+  <si>
+    <t>autodetect</t>
+  </si>
+  <si>
+    <t>cisco</t>
   </si>
 </sst>
 </file>
@@ -859,23 +874,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="60"/>
       <protection locked="0"/>
@@ -900,9 +906,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -1303,560 +1306,579 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:BA9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="7" style="16" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="25.21875" style="16" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" style="16" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" style="16" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" style="16"/>
-    <col min="14" max="14" width="16" style="16" customWidth="1"/>
-    <col min="15" max="15" width="20" style="16" customWidth="1"/>
-    <col min="16" max="16" width="16" style="16" customWidth="1"/>
-    <col min="17" max="17" width="51.21875" style="16" customWidth="1"/>
-    <col min="18" max="34" width="4.21875" style="16" customWidth="1"/>
-    <col min="35" max="45" width="4.44140625" style="16" customWidth="1"/>
-    <col min="46" max="47" width="8.77734375" style="16"/>
-    <col min="48" max="48" width="16.77734375" style="16" customWidth="1"/>
-    <col min="49" max="49" width="74.21875" style="16" customWidth="1"/>
-    <col min="50" max="50" width="54.5546875" style="16" customWidth="1"/>
-    <col min="51" max="51" width="37.21875" style="16" customWidth="1"/>
-    <col min="52" max="52" width="37.77734375" style="16" customWidth="1"/>
-    <col min="53" max="53" width="8.77734375" style="16"/>
-    <col min="54" max="16384" width="8.77734375" style="15"/>
+    <col min="1" max="1" width="20.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="7" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="20.54296875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="25.1796875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="16.54296875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" style="9"/>
+    <col min="14" max="14" width="16" style="9" customWidth="1"/>
+    <col min="15" max="15" width="20" style="9" customWidth="1"/>
+    <col min="16" max="16" width="16" style="9" customWidth="1"/>
+    <col min="17" max="17" width="51.1796875" style="9" customWidth="1"/>
+    <col min="18" max="34" width="4.1796875" style="9" customWidth="1"/>
+    <col min="35" max="45" width="4.453125" style="9" customWidth="1"/>
+    <col min="46" max="47" width="8.81640625" style="9"/>
+    <col min="48" max="48" width="16.81640625" style="9" customWidth="1"/>
+    <col min="49" max="49" width="74.1796875" style="9" customWidth="1"/>
+    <col min="50" max="50" width="54.54296875" style="9" customWidth="1"/>
+    <col min="51" max="51" width="37.1796875" style="9" customWidth="1"/>
+    <col min="52" max="52" width="37.81640625" style="9" customWidth="1"/>
+    <col min="53" max="53" width="8.81640625" style="9"/>
+    <col min="54" max="16384" width="8.81640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:53" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="28" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="15"/>
-      <c r="BA1" s="15"/>
-    </row>
-    <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+    </row>
+    <row r="2" spans="1:53" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="29" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-      <c r="BA2" s="15"/>
-    </row>
-    <row r="3" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+    </row>
+    <row r="3" spans="1:53" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="15"/>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-      <c r="BA3" s="15"/>
-    </row>
-    <row r="4" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+    </row>
+    <row r="4" spans="1:53" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="15"/>
-      <c r="AS4" s="15"/>
-      <c r="AT4" s="15"/>
-      <c r="AU4" s="15"/>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="15"/>
-      <c r="AX4" s="15"/>
-      <c r="AY4" s="15"/>
-      <c r="AZ4" s="15"/>
-      <c r="BA4" s="15"/>
-    </row>
-    <row r="5" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+    </row>
+    <row r="5" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="15"/>
-      <c r="AP5" s="15"/>
-      <c r="AQ5" s="15"/>
-      <c r="AR5" s="15"/>
-      <c r="AS5" s="15"/>
-      <c r="AT5" s="15"/>
-      <c r="AU5" s="15"/>
-      <c r="AV5" s="15"/>
-      <c r="AW5" s="15"/>
-      <c r="AX5" s="15"/>
-      <c r="AY5" s="15"/>
-      <c r="AZ5" s="15"/>
-      <c r="BA5" s="15"/>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="15"/>
-      <c r="AS6" s="15"/>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="15"/>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="15"/>
-      <c r="AX6" s="15"/>
-      <c r="AY6" s="15"/>
-      <c r="AZ6" s="15"/>
-      <c r="BA6" s="15"/>
-    </row>
-    <row r="7" spans="1:53" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+    </row>
+    <row r="7" spans="1:53" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="S7" s="13" t="s">
+      <c r="S7" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="T7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="U7" s="13" t="s">
+      <c r="U7" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="V7" s="13" t="s">
+      <c r="V7" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="W7" s="13" t="s">
+      <c r="W7" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="X7" s="13" t="s">
+      <c r="X7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="Y7" s="13" t="s">
+      <c r="Y7" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="Z7" s="13" t="s">
+      <c r="Z7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AA7" s="13" t="s">
+      <c r="AA7" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="AB7" s="13" t="s">
+      <c r="AB7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AC7" s="13" t="s">
+      <c r="AC7" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AD7" s="13" t="s">
+      <c r="AD7" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AE7" s="13" t="s">
+      <c r="AE7" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="AF7" s="13" t="s">
+      <c r="AF7" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AG7" s="13" t="s">
+      <c r="AG7" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AH7" s="13" t="s">
+      <c r="AH7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="AI7" s="13" t="s">
+      <c r="AI7" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="AJ7" s="13" t="s">
+      <c r="AJ7" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AK7" s="13" t="s">
+      <c r="AK7" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="AL7" s="13" t="s">
+      <c r="AL7" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AM7" s="13" t="s">
+      <c r="AM7" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="AN7" s="13" t="s">
+      <c r="AN7" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="AO7" s="13" t="s">
+      <c r="AO7" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="AP7" s="13" t="s">
+      <c r="AP7" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="AQ7" s="13" t="s">
+      <c r="AQ7" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="AR7" s="14" t="s">
+      <c r="AR7" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="AS7" s="14" t="s">
+      <c r="AS7" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AT7" s="14" t="s">
+      <c r="AT7" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="AU7" s="14" t="s">
+      <c r="AU7" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="AV7" s="10" t="s">
+      <c r="AV7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AW7" s="10" t="s">
+      <c r="AW7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AX7" s="10" t="s">
+      <c r="AX7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AY7" s="10" t="s">
+      <c r="AY7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AZ7" s="10" t="s">
+      <c r="AZ7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="BA7" s="10" t="s">
+      <c r="BA7" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>184</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
@@ -1900,153 +1922,153 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.21875" customWidth="1"/>
+    <col min="1" max="1" width="32.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2062,169 +2084,164 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" style="3" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="18" customWidth="1"/>
-    <col min="4" max="5" width="9.21875" style="18"/>
-    <col min="6" max="6" width="53.77734375" style="18" customWidth="1"/>
-    <col min="7" max="16384" width="9.21875" style="18"/>
+    <col min="1" max="1" width="19.81640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="30.81640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" style="10" customWidth="1"/>
+    <col min="4" max="5" width="9.1796875" style="10"/>
+    <col min="6" max="6" width="53.81640625" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A1" s="9"/>
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:7" ht="31" x14ac:dyDescent="0.7">
+      <c r="B1" s="15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="35"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="C2" s="27"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="34"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="34"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="34"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="34"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>143</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>10</v>
       </c>
     </row>
@@ -2260,14 +2277,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="135.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="135.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2293,30 +2310,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="66.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="26.77734375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.21875" style="3"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" customWidth="1"/>
+    <col min="4" max="4" width="66.81640625" customWidth="1"/>
+    <col min="5" max="5" width="26.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2335,36 +2351,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" customWidth="1"/>
-    <col min="8" max="14" width="16.21875" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="44.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" customWidth="1"/>
+    <col min="8" max="14" width="16.1796875" customWidth="1"/>
+    <col min="15" max="15" width="15.1796875" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" style="1"/>
-    <col min="18" max="18" width="15.77734375" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" style="1"/>
+    <col min="18" max="18" width="15.81640625" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="22" max="22" width="13.21875" customWidth="1"/>
-    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.1796875" customWidth="1"/>
+    <col min="23" max="23" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2476,19 +2492,19 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="1" customWidth="1"/>
-    <col min="6" max="8" width="17.21875" customWidth="1"/>
-    <col min="9" max="10" width="17.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="17.1796875" customWidth="1"/>
+    <col min="9" max="10" width="17.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2540,48 +2556,47 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.21875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="20" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="9.21875" style="9"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" t="s">
         <v>165</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" t="s">
         <v>166</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2600,20 +2615,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" customWidth="1"/>
-    <col min="8" max="8" width="138.5546875" customWidth="1"/>
-    <col min="9" max="9" width="100.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" customWidth="1"/>
+    <col min="8" max="8" width="138.54296875" customWidth="1"/>
+    <col min="9" max="9" width="100.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2657,18 +2672,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2706,14 +2721,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" customWidth="1"/>
-    <col min="5" max="5" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" customWidth="1"/>
+    <col min="5" max="5" width="27.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2747,49 +2762,47 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.21875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="46.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17" style="7" customWidth="1"/>
-    <col min="8" max="8" width="138.5546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="19" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="9.21875" style="7"/>
+    <col min="1" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="46.81640625" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="6" width="30.54296875" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="138.54296875" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2797,4 +2810,10 @@
   <autoFilter ref="A1:H1" xr:uid="{B7EB6E73-7A47-4B22-A88C-5BA601D79630}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f956267e-7d50-46d0-9b27-8f911a5b38ff}" enabled="1" method="Standard" siteId="{6c637512-c417-4e78-9d62-b61258e4b619}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>